--- a/biology/Zoologie/Corucia_zebrata/Corucia_zebrata.xlsx
+++ b/biology/Zoologie/Corucia_zebrata/Corucia_zebrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Scinque à queue préhensile des Iles Salomons, Scinque arboricole des Iles Salomon ou Scinque géant des Iles Salomon (Corucia zebrata), unique représentant du genre Corucia, est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Scinque à queue préhensile des Iles Salomons, Scinque arboricole des Iles Salomon ou Scinque géant des Iles Salomon (Corucia zebrata), unique représentant du genre Corucia, est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel des Salomon. Elle se rencontre dans l'État des Salomon et dans l'île Bougainville en Papouasie-Nouvelle-Guinée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel des Salomon. Elle se rencontre dans l'État des Salomon et dans l'île Bougainville en Papouasie-Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description, comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lézard a un corps plutôt long, assez épais, avec de courtes pattes, qui peut atteindre environ 70 cm. La tête est triangulaire, avec de petits yeux. Cet animal a un comportement arboricole, et sa queue est préhensile et l'aide dans ses déplacements.
 Il est vert assez sombre, généralement tacheté de vert plus clair, et le dessous du corps est crème tirant sur le jaune.
@@ -576,7 +592,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des ovovivipares. La gestation dure environ six à huit mois, et la plupart du temps la femelle donne naissance à un seul petit rarement deux qui sort déjà formé. Les petits mesurent de 30 à 37 cm et pèsent de 80 à 175 g selon la sous-espèce.
 Les petits sont protégés par tout le groupe et s'en détachent en général au bout d'un an, même s'il y a des exemples de présence plus longue.
@@ -608,9 +626,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 janvier 2014)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 janvier 2014) :
 Corucia zebrata alfredschmidti Köhler, 1997 qui est connue de l'île Bougainville,
 Corucia zebrata zebrata Gray, 1855 qui est plus grande et se distingue par des yeux plus sombres, elle est connue sous trois formes Isabel, Mailaita et Guadalcanal.</t>
         </is>
@@ -640,7 +660,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1856 "1855" : New genus of fish-scaled lizards (Scissosarae) from New Guinea. Annals and Magazine of Natural History, sér. 2, vol. 18, p. 345-346 (texte intégral).
 Köhler, 1997 : Eine neue Unterart des Wickelschwanzskinkes Corucia zebrata von Bougainville, Papua-Neuguinea. Salamandra, vol. 33, no 1, p. 61-68.</t>
